--- a/input/tables_extraction/RAMSAR/ramsar.xlsx
+++ b/input/tables_extraction/RAMSAR/ramsar.xlsx
@@ -79,7 +79,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>RAMSAR_A</t>
+    <t>RAMSAR_A_1</t>
   </si>
   <si>
     <t>The overall conservation status of wetlands</t>
@@ -88,7 +88,7 @@
     <t>i</t>
   </si>
   <si>
-    <t>RAMSAR_A1</t>
+    <t>RAMSAR_Ai_2</t>
   </si>
   <si>
     <t>Status and trends in wetland ecosystem extent</t>
@@ -97,7 +97,7 @@
     <t>ii</t>
   </si>
   <si>
-    <t>RAMSAR_A2</t>
+    <t>RAMSAR_Aii_3</t>
   </si>
   <si>
     <t>Trends in conservation status – qualitative assessment</t>
@@ -106,13 +106,13 @@
     <t>B</t>
   </si>
   <si>
-    <t>RAMSAR_B</t>
+    <t>RAMSAR_B_4</t>
   </si>
   <si>
     <t>The status of the ecological character of Ramsar Sites</t>
   </si>
   <si>
-    <t>RAMSAR_B1</t>
+    <t>RAMSAR_Bi_5</t>
   </si>
   <si>
     <t>Trends in the status of Ramsar Site ecological character – qualitative assessment</t>
@@ -121,19 +121,19 @@
     <t>C</t>
   </si>
   <si>
-    <t>RAMSAR_C</t>
+    <t>RAMSAR_C_6</t>
   </si>
   <si>
     <t>Trends in water quality</t>
   </si>
   <si>
-    <t>RAMSAR_C1</t>
+    <t>RAMSAR_Ci_7</t>
   </si>
   <si>
     <t>Trends in dissolved nitrate (or nitrogen) concentration</t>
   </si>
   <si>
-    <t>RAMSAR_C2</t>
+    <t>RAMSAR_Cii_8</t>
   </si>
   <si>
     <t>Trends in Biological Oxygen Demand (BOD)</t>
@@ -142,13 +142,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>RAMSAR_D</t>
+    <t>RAMSAR_D_9</t>
   </si>
   <si>
     <t>The frequency of threats affecting Ramsar Sites</t>
   </si>
   <si>
-    <t>RAMSAR_D1</t>
+    <t>RAMSAR_Di_10</t>
   </si>
   <si>
     <t>The frequency of threats affecting Ramsar Sites – qualitative assessment</t>
@@ -157,25 +157,25 @@
     <t>E</t>
   </si>
   <si>
-    <t>RAMSAR_E</t>
+    <t>RAMSAR_E_11</t>
   </si>
   <si>
     <t>Wetland sites with successfully implemented conservation or wise use management plans</t>
   </si>
   <si>
-    <t>RAMSAR_E1</t>
+    <t>RAMSAR_Ei_12</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>RAMSAR_F</t>
+    <t>RAMSAR_F_13</t>
   </si>
   <si>
     <t>Overall population trends of wetland taxa</t>
   </si>
   <si>
-    <t>RAMSAR_F1</t>
+    <t>RAMSAR_Fi_14</t>
   </si>
   <si>
     <t>Trends in the status of waterbird biogeographic populations</t>
@@ -184,19 +184,19 @@
     <t>G</t>
   </si>
   <si>
-    <t>RAMSAR_G</t>
+    <t>RAMSAR_G_15</t>
   </si>
   <si>
     <t>Changes in threat status of wetland taxa</t>
   </si>
   <si>
-    <t>RAMSAR_G1</t>
+    <t>RAMSAR_Gi_16</t>
   </si>
   <si>
     <t>Trends in the status of globally-threatened wetland-dependent birds</t>
   </si>
   <si>
-    <t>RAMSAR_G2</t>
+    <t>RAMSAR_Gii_17</t>
   </si>
   <si>
     <t>Trends in the status of globally-threatened wetland-dependent amphibians</t>
@@ -205,13 +205,13 @@
     <t>H</t>
   </si>
   <si>
-    <t>RAMSAR_H</t>
+    <t>RAMSAR_H_18</t>
   </si>
   <si>
     <t>The proportion of candidate Ramsar Sites designated so far for wetland types/features</t>
   </si>
   <si>
-    <t>RAMSAR_H1</t>
+    <t>RAMSAR_Hi_19</t>
   </si>
   <si>
     <t>Coverage of the wetland resource by designated Ramsar Sites</t>
@@ -386,13 +386,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -708,6 +709,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="20.5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -724,7 +728,7 @@
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -746,7 +750,7 @@
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -757,7 +761,7 @@
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -768,7 +772,7 @@
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -779,7 +783,7 @@
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -790,7 +794,7 @@
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -801,7 +805,7 @@
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -812,7 +816,7 @@
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -823,7 +827,7 @@
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -834,7 +838,7 @@
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -845,7 +849,7 @@
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -856,7 +860,7 @@
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -867,7 +871,7 @@
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -878,7 +882,7 @@
       <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -900,7 +904,7 @@
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -911,7 +915,7 @@
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -922,7 +926,7 @@
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
